--- a/results/manual_perceptron_wyniki_regression_our_train_val_test.xlsx
+++ b/results/manual_perceptron_wyniki_regression_our_train_val_test.xlsx
@@ -528,34 +528,34 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>5.894446710950481</v>
+        <v>5.894422729440769</v>
       </c>
       <c r="H2" t="n">
-        <v>1.276385165349354</v>
+        <v>1.276433899742533</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7006411687372633</v>
+        <v>0.7006293432956789</v>
       </c>
       <c r="J2" t="n">
-        <v>6.627248812944973</v>
+        <v>6.627273093554773</v>
       </c>
       <c r="K2" t="n">
-        <v>1.237085446700596</v>
+        <v>1.237143850928344</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5814306100794111</v>
+        <v>0.581429076544106</v>
       </c>
       <c r="M2" t="n">
-        <v>5.843011367338701</v>
+        <v>5.84265939126746</v>
       </c>
       <c r="N2" t="n">
-        <v>1.169856234440501</v>
+        <v>1.169886495997449</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6462301362276768</v>
+        <v>0.6462514469044743</v>
       </c>
     </row>
     <row r="3">
@@ -681,13 +681,13 @@
         <v>-0.05163322566395116</v>
       </c>
       <c r="J5" t="n">
-        <v>15.91745903595133</v>
+        <v>15.91745801127014</v>
       </c>
       <c r="K5" t="n">
-        <v>2.959742094826263</v>
+        <v>2.959741895030478</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.005328350544220095</v>
+        <v>-0.005328285826538437</v>
       </c>
       <c r="M5" t="n">
         <v>16.60885808354066</v>
@@ -719,31 +719,31 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.704747207299846</v>
+        <v>5.89280614338808</v>
       </c>
       <c r="H6" t="n">
-        <v>1.223038909996118</v>
+        <v>1.275770308941353</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7139115518822601</v>
+        <v>0.7009051887580124</v>
       </c>
       <c r="J6" t="n">
-        <v>6.650794548289901</v>
+        <v>6.626219115838447</v>
       </c>
       <c r="K6" t="n">
-        <v>1.216959571476348</v>
+        <v>1.236798460466433</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5799434885970689</v>
+        <v>0.5814956445608146</v>
       </c>
       <c r="M6" t="n">
-        <v>5.850352985737698</v>
+        <v>5.853395058037579</v>
       </c>
       <c r="N6" t="n">
-        <v>1.143433097680734</v>
+        <v>1.170592536935399</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6457856319853268</v>
+        <v>0.6456014472498443</v>
       </c>
     </row>
     <row r="7">
@@ -763,34 +763,34 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>14.9619043971732</v>
+        <v>14.96167082707944</v>
       </c>
       <c r="H7" t="n">
-        <v>2.820710726197007</v>
+        <v>2.820598849972238</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03498169325925512</v>
+        <v>-0.03494317441555103</v>
       </c>
       <c r="J7" t="n">
-        <v>15.87239724375081</v>
+        <v>15.86944654788085</v>
       </c>
       <c r="K7" t="n">
-        <v>2.950781536081261</v>
+        <v>2.949343114637325</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00248229973151215</v>
+        <v>-0.002295937184248809</v>
       </c>
       <c r="M7" t="n">
-        <v>16.56129226943337</v>
+        <v>16.56129226943442</v>
       </c>
       <c r="N7" t="n">
-        <v>2.991833830085044</v>
+        <v>2.991833830085166</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.002716876917459032</v>
+        <v>-0.002716876917522537</v>
       </c>
     </row>
     <row r="8">
@@ -857,34 +857,34 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>15.11620404895871</v>
+        <v>15.13006809970988</v>
       </c>
       <c r="H9" t="n">
-        <v>2.83637756411667</v>
+        <v>2.838067050946681</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05023802356196485</v>
+        <v>-0.05163322566395116</v>
       </c>
       <c r="J9" t="n">
-        <v>15.91721875123445</v>
+        <v>15.91745801127014</v>
       </c>
       <c r="K9" t="n">
-        <v>2.959701841318892</v>
+        <v>2.959741895030478</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.005313174438691171</v>
+        <v>-0.005328285826538437</v>
       </c>
       <c r="M9" t="n">
-        <v>16.60860762569312</v>
+        <v>16.60885808354066</v>
       </c>
       <c r="N9" t="n">
-        <v>2.99634194133417</v>
+        <v>2.996362183532499</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.005581623549977488</v>
+        <v>-0.005596787723557206</v>
       </c>
     </row>
     <row r="10">
@@ -904,34 +904,34 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>5.873621142758654</v>
+        <v>5.809208151238082</v>
       </c>
       <c r="H10" t="n">
-        <v>1.275283412977145</v>
+        <v>1.265824871297228</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7011207923200209</v>
+        <v>0.7054410194407582</v>
       </c>
       <c r="J10" t="n">
-        <v>6.626738506745805</v>
+        <v>6.618640449678497</v>
       </c>
       <c r="K10" t="n">
-        <v>1.238592626285818</v>
+        <v>1.238492021380794</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5814628404302683</v>
+        <v>0.5819743043728298</v>
       </c>
       <c r="M10" t="n">
-        <v>5.862896977455565</v>
+        <v>5.850278982468393</v>
       </c>
       <c r="N10" t="n">
-        <v>1.173547202078194</v>
+        <v>1.178580824867645</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6450261458296098</v>
+        <v>0.6457901125733069</v>
       </c>
     </row>
     <row r="11">
@@ -1057,13 +1057,13 @@
         <v>-0.05163322566395116</v>
       </c>
       <c r="J13" t="n">
-        <v>15.91746487160819</v>
+        <v>15.91745801127014</v>
       </c>
       <c r="K13" t="n">
-        <v>2.959743232398385</v>
+        <v>2.959741895030478</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.005328719117575931</v>
+        <v>-0.005328285826538437</v>
       </c>
       <c r="M13" t="n">
         <v>16.60885808354066</v>
@@ -1092,34 +1092,34 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>5.672628314448779</v>
+        <v>5.649843985521056</v>
       </c>
       <c r="H14" t="n">
-        <v>1.222557952558423</v>
+        <v>1.223349589819227</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7152964811311607</v>
+        <v>0.7161993632558137</v>
       </c>
       <c r="J14" t="n">
-        <v>6.647925822778581</v>
+        <v>6.676340884329394</v>
       </c>
       <c r="K14" t="n">
-        <v>1.217161816638818</v>
+        <v>1.216556780898514</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5801246739910407</v>
+        <v>0.5783300114827239</v>
       </c>
       <c r="M14" t="n">
-        <v>5.877093878301772</v>
+        <v>5.888574186328768</v>
       </c>
       <c r="N14" t="n">
-        <v>1.146513669546026</v>
+        <v>1.155475828714831</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6441665829496834</v>
+        <v>0.6434714983860153</v>
       </c>
     </row>
     <row r="15">
@@ -1188,15 +1188,33 @@
       <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>15.00668392024468</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.825777844698315</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.03964337099266175</v>
+      </c>
+      <c r="J16" t="n">
+        <v>15.88331057891632</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.953292393800118</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.003171573391089533</v>
+      </c>
+      <c r="M16" t="n">
+        <v>16.5729092060671</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.993103056788523</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.003420233770971004</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1244,34 +1262,34 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>14.9382735180906</v>
+        <v>14.93828232218722</v>
       </c>
       <c r="H18" t="n">
-        <v>2.817114178739105</v>
+        <v>2.817116200935801</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.03244793489846173</v>
+        <v>-0.03244846734081439</v>
       </c>
       <c r="J18" t="n">
-        <v>15.84129860613419</v>
+        <v>15.84132909164887</v>
       </c>
       <c r="K18" t="n">
-        <v>2.940329395722746</v>
+        <v>2.940334311321554</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0005181456546163865</v>
+        <v>-0.0005200710845556511</v>
       </c>
       <c r="M18" t="n">
-        <v>16.52730171172558</v>
+        <v>16.52730338782872</v>
       </c>
       <c r="N18" t="n">
-        <v>2.986555064419898</v>
+        <v>2.986554049830139</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0006588910239095913</v>
+        <v>-0.0006589925049340639</v>
       </c>
     </row>
     <row r="19">
@@ -1432,17 +1450,35 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14.93139915577568</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.816123147259415</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.03192119649045397</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15.82911908441019</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.937834146414482</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0002510988873390962</v>
+      </c>
+      <c r="M22" t="n">
+        <v>16.51930321926451</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.986039126506185</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.000174615808538281</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1602,34 +1638,34 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>14.93828228102164</v>
+        <v>6.736855308271586</v>
       </c>
       <c r="H26" t="n">
-        <v>2.817116194089918</v>
+        <v>1.452863977474366</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.03244846397411717</v>
+        <v>0.6342636367484843</v>
       </c>
       <c r="J26" t="n">
-        <v>15.84132908330571</v>
+        <v>7.356689076531772</v>
       </c>
       <c r="K26" t="n">
-        <v>2.94033430832319</v>
+        <v>1.519060737588971</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0005200705576118292</v>
+        <v>0.5353600045037374</v>
       </c>
       <c r="M26" t="n">
-        <v>16.52730338822883</v>
+        <v>6.734830063726101</v>
       </c>
       <c r="N26" t="n">
-        <v>2.986554049924313</v>
+        <v>1.467155074541073</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.0006589925291589083</v>
+        <v>0.5922342497068739</v>
       </c>
     </row>
     <row r="27">
@@ -1651,15 +1687,33 @@
       <c r="F27" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>14.9619043971732</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.820710726197007</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.03498169325925512</v>
+      </c>
+      <c r="J27" t="n">
+        <v>15.87239724375081</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.950781536081261</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.00248229973151215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>16.56129226943337</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.991833830085044</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.002716876917459032</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1680,15 +1734,33 @@
       <c r="F28" t="n">
         <v>1</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>15.00668402989693</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.825777883312059</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.03964338888527084</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15.88331205497411</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.953292984664739</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.003171666617196367</v>
+      </c>
+      <c r="M28" t="n">
+        <v>16.5729092060671</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.993103056788523</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0.003420233770971004</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1785,33 +1857,15 @@
       <c r="F31" t="n">
         <v>1</v>
       </c>
-      <c r="G31" t="n">
-        <v>14.9619043971732</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.820710726197007</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-0.03498169325925512</v>
-      </c>
-      <c r="J31" t="n">
-        <v>15.87239724375081</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.950781536081261</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-0.00248229973151215</v>
-      </c>
-      <c r="M31" t="n">
-        <v>16.56129226943337</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.991833830085044</v>
-      </c>
-      <c r="O31" t="n">
-        <v>-0.002716876917459032</v>
-      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2076,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>14.93828232218722</v>
@@ -2154,33 +2208,15 @@
       <c r="F40" t="n">
         <v>1</v>
       </c>
-      <c r="G40" t="n">
-        <v>15.00668402989693</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2.825777883312059</v>
-      </c>
-      <c r="I40" t="n">
-        <v>-0.03964338888527084</v>
-      </c>
-      <c r="J40" t="n">
-        <v>15.88331205497411</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.953292984664739</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-0.003171666617196367</v>
-      </c>
-      <c r="M40" t="n">
-        <v>16.5729092060671</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.993103056788523</v>
-      </c>
-      <c r="O40" t="n">
-        <v>-0.003420233770971004</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2202,31 +2238,31 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>15.12548537062886</v>
+        <v>15.13006809970988</v>
       </c>
       <c r="H41" t="n">
-        <v>2.836640867227112</v>
+        <v>2.838067050946681</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.05118060528317473</v>
+        <v>-0.05163322566395116</v>
       </c>
       <c r="J41" t="n">
-        <v>15.90948326557081</v>
+        <v>15.91745801127014</v>
       </c>
       <c r="K41" t="n">
-        <v>2.958374705543641</v>
+        <v>2.959741895030478</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.004824610087728054</v>
+        <v>-0.005328285826538437</v>
       </c>
       <c r="M41" t="n">
-        <v>16.6005011128235</v>
+        <v>16.60885808354066</v>
       </c>
       <c r="N41" t="n">
-        <v>2.995671238307968</v>
+        <v>2.996362183532499</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.005090808151331228</v>
+        <v>-0.005596787723557206</v>
       </c>
     </row>
     <row r="42">
@@ -2496,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>14.93828232218722</v>
@@ -2684,35 +2720,17 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" t="n">
-        <v>14.93828222520065</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2.817116175217948</v>
-      </c>
-      <c r="I54" t="n">
-        <v>-0.0324484575177602</v>
-      </c>
-      <c r="J54" t="n">
-        <v>15.84132910669954</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2.940334319380577</v>
-      </c>
-      <c r="L54" t="n">
-        <v>-0.0005200720351388188</v>
-      </c>
-      <c r="M54" t="n">
-        <v>16.52730340513245</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.986554053902978</v>
-      </c>
-      <c r="O54" t="n">
-        <v>-0.0006589935526024604</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2762,15 +2780,33 @@
       <c r="F56" t="n">
         <v>1</v>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>15.00668402989693</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.825777883312059</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.03964338888527084</v>
+      </c>
+      <c r="J56" t="n">
+        <v>15.88331205497411</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2.953292984664739</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.003171666617196367</v>
+      </c>
+      <c r="M56" t="n">
+        <v>16.5729092060671</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.993103056788523</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.003420233770971004</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2820,33 +2856,15 @@
       <c r="F58" t="n">
         <v>1</v>
       </c>
-      <c r="G58" t="n">
-        <v>14.93828232218722</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.817116200935801</v>
-      </c>
-      <c r="I58" t="n">
-        <v>-0.03244846734081439</v>
-      </c>
-      <c r="J58" t="n">
-        <v>15.8427469112669</v>
-      </c>
-      <c r="K58" t="n">
-        <v>2.940418656400582</v>
-      </c>
-      <c r="L58" t="n">
-        <v>-0.0006096189360533799</v>
-      </c>
-      <c r="M58" t="n">
-        <v>16.52730338782872</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.986554049830139</v>
-      </c>
-      <c r="O58" t="n">
-        <v>-0.0006589925049340639</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2925,33 +2943,15 @@
       <c r="F61" t="n">
         <v>1</v>
       </c>
-      <c r="G61" t="n">
-        <v>15.13006809970988</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2.838067050946681</v>
-      </c>
-      <c r="I61" t="n">
-        <v>-0.05163322566395116</v>
-      </c>
-      <c r="J61" t="n">
-        <v>15.91745801127014</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2.959741895030478</v>
-      </c>
-      <c r="L61" t="n">
-        <v>-0.005328285826538437</v>
-      </c>
-      <c r="M61" t="n">
-        <v>16.60885808354066</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.996362183532499</v>
-      </c>
-      <c r="O61" t="n">
-        <v>-0.005596787723557206</v>
-      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 12:24:32</t>
+          <t>2025-11-15 22:08:08</t>
         </is>
       </c>
     </row>
